--- a/docs/Tutorial/img/DataPortals_Model_Simple_Survey.xlsx
+++ b/docs/Tutorial/img/DataPortals_Model_Simple_Survey.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyv\Downloads\DataPortals Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769FC67-7559-4EE5-80C4-E6AE59FAF6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65760993-53FB-40C4-A162-EB2236E88274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="5" xr2:uid="{95D02EF9-F916-4F93-B3DB-5EB30412A88C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReadMe" sheetId="51" r:id="rId1"/>
-    <sheet name="Master" sheetId="24" r:id="rId2"/>
-    <sheet name="Master.settings" sheetId="56" r:id="rId3"/>
-    <sheet name="CSS" sheetId="57" r:id="rId4"/>
-    <sheet name="SurveyList" sheetId="1" r:id="rId5"/>
-    <sheet name="Survey" sheetId="59" r:id="rId6"/>
-    <sheet name="Categories" sheetId="58" r:id="rId7"/>
+    <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="5" r:id="rId2"/>
+    <sheet name="Master.settings" sheetId="2" r:id="rId3"/>
+    <sheet name="CSS" sheetId="3" r:id="rId4"/>
+    <sheet name="SurveyList" sheetId="4" r:id="rId5"/>
+    <sheet name="Survey" sheetId="7" r:id="rId6"/>
+    <sheet name="Categories" sheetId="6" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,52 +45,61 @@
     <t>Name</t>
   </si>
   <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>ControlType</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
   <si>
     <t>System.String</t>
   </si>
   <si>
+    <t>Label</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Textarea</t>
   </si>
   <si>
     <t>System.DateTimeOffset</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>SurveyResponseManager</t>
@@ -120,9 +127,6 @@
 Please complete this form and let us know what you thought about your stay with us.</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -141,38 +145,32 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>Form.Gender</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
     <t>Please provide any thoughts you'd like to convey.</t>
   </si>
   <si>
-    <t>Textarea</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,92 +188,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="42"/>
-      <color theme="7"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,25 +206,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -329,129 +230,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" applyFill="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Activity" xfId="3" xr:uid="{0EBDFCA9-A444-4E6C-B0F0-99A6F392B25E}"/>
-    <cellStyle name="Heading 1 2" xfId="2" xr:uid="{3AC88AEC-B778-4BC9-932B-A2371776A50A}"/>
-    <cellStyle name="Label" xfId="6" xr:uid="{D56EBE8C-563C-46A9-A8DE-B8A4798EC314}"/>
-    <cellStyle name="Neutral 2" xfId="9" xr:uid="{8CEF67ED-03F4-46BA-A9AF-0AE530165544}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="10" xr:uid="{1CDBE95F-25EE-487A-B2B3-4A03E79276FF}"/>
-    <cellStyle name="Normal 3" xfId="11" xr:uid="{1D3EF3F2-C58D-498F-BAEA-91EABC8D91BA}"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{9464A6A3-A133-43B2-B90B-2E5895784D99}"/>
-    <cellStyle name="Percent Complete" xfId="7" xr:uid="{A15E6CBE-9CBD-4199-8F4B-EFD35C406272}"/>
-    <cellStyle name="Period Headers" xfId="4" xr:uid="{04FE4268-BD41-4CEC-818E-8F96753A6E7C}"/>
-    <cellStyle name="Period Highlight Control" xfId="8" xr:uid="{D0343E8F-242D-4AEC-ACB2-D67E0353295C}"/>
-    <cellStyle name="Project Headers" xfId="5" xr:uid="{A221F3E0-DAC8-47AB-8957-1FB33749DCD6}"/>
-    <cellStyle name="Style 1" xfId="12" xr:uid="{0C711836-BCBF-4114-8BA6-781DD7DB862B}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -468,22 +275,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19052</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DEFF4F-757E-4368-9C74-2022DFABCAD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE644ACD-7CA9-433F-9B31-31C0824197BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,8 +298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19052" y="19050"/>
-          <a:ext cx="8905874" cy="20934045"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8930639" cy="21153120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3457,7 +3264,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3469,7 +3276,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3486,9 +3293,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3538,9 +3345,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3736,29 +3543,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00407D7-DDE3-404C-A1F6-A572A9FBC7B4}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF9EF7A-B8DE-469A-B3AA-A0ED78604A92}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="29.3671875" customWidth="1"/>
+    <col min="2" max="2" width="29.41796875" customWidth="1"/>
+    <col min="3" max="3" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.15625" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063C4434-59D8-40C4-BB34-BD46DDB99F8A}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3766,84 +3626,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.15625" customWidth="1"/>
+    <col min="1" max="1" width="25.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CBA784-CD4A-4327-88EF-247A1C5DF1F2}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="26.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3853,16 +3694,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="1" max="1" width="55.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="228.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:1" ht="228.85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3870,61 +3711,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7D442-4D58-4BE5-88C8-37FAF1A8C530}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.7890625" customWidth="1"/>
-    <col min="2" max="2" width="21.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.47265625" customWidth="1"/>
-    <col min="4" max="4" width="28.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="90.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20.578125" customWidth="1"/>
+    <col min="6" max="6" width="99.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3933,148 +3771,161 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF0002D-1458-43E6-BEB2-4058BE9247E8}">
   <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.47265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.20703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.734375" style="3"/>
+    <col min="1" max="1" width="20.578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7890625" customWidth="1"/>
+    <col min="3" max="3" width="25.41796875" customWidth="1"/>
+    <col min="4" max="6" width="20.578125" customWidth="1"/>
+    <col min="7" max="7" width="3.89453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="97.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="42.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="b">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="7" spans="1:6" ht="41.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304AACA2-203C-473A-96D8-51F5561796F8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -4082,36 +3933,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="32.26171875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="28.3671875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
+      <c r="A2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
+      <c r="A3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
+      <c r="A4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>